--- a/chapter01/population-sample-concpets.xlsx
+++ b/chapter01/population-sample-concpets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sangjs\Documents\github.com\lectures\class101\statistics-basic\chapter01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E48F1CC-CD8B-4B33-AAEA-A40336668861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4C2A4D-1459-4AE2-85E0-75CECC721459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17340" yWindow="4980" windowWidth="20910" windowHeight="15435" xr2:uid="{CA297285-8AA8-4AA7-88D5-E855FC3BF128}"/>
+    <workbookView xWindow="16305" yWindow="3540" windowWidth="20910" windowHeight="15435" xr2:uid="{CA297285-8AA8-4AA7-88D5-E855FC3BF128}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>H</t>
   </si>
@@ -39,10 +39,13 @@
     <t>균일확률분포 관찰값</t>
   </si>
   <si>
-    <t>조절 버튼 값</t>
+    <t>베루누이 확률변수</t>
   </si>
   <si>
-    <t>베루누이 확률변수</t>
+    <t>모수(p)</t>
+  </si>
+  <si>
+    <t>베르누이 확률변수</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686E9BCB-F5B7-40D8-B07A-66A6C50312E2}">
-  <dimension ref="A2:M16"/>
+  <dimension ref="A2:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -406,7 +409,7 @@
     <row r="2" spans="1:13">
       <c r="A2">
         <f ca="1">RAND()</f>
-        <v>0.27046177861997489</v>
+        <v>4.1402808056418272E-2</v>
       </c>
       <c r="D2">
         <v>0.13641802369329337</v>
@@ -435,7 +438,7 @@
     <row r="9" spans="1:13">
       <c r="A9" t="str">
         <f ca="1">IF(RAND() &lt; 0.5, "H", "T")</f>
-        <v>H</v>
+        <v>T</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
@@ -473,30 +476,375 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
         <f ca="1">RAND()</f>
-        <v>3.760568371358608E-2</v>
+        <v>0.40956782209512843</v>
       </c>
       <c r="E14">
-        <f ca="1">IF(A14 &lt;A16, 1, 0)</f>
+        <f ca="1">IF(A14&lt;A16, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F16" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="D18">
+        <v>0.25</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="str">
+        <f>_xlfn.TEXTJOIN(", ", TRUE,  E18:N18)</f>
+        <v>0, 0, 0, 0, 1, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="D19">
+        <v>0.5</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" ref="P19:P20" si="0">_xlfn.TEXTJOIN(", ", TRUE,  E19:N19)</f>
+        <v>0, 1, 1, 1, 0, 1, 0, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="D20">
+        <v>0.75</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="0"/>
+        <v>0, 0, 1, 0, 0, 0, 1, 1, 1, 1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24">
+        <f ca="1">IF(RAND() &lt; 0.6, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f ca="1">IF(RAND() &lt; 0.6, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25">
+        <f ca="1">IF(RAND() &lt; 0.6, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f ca="1">IF(RAND() &lt; 0.6, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26">
+        <f ca="1">IF(RAND() &lt; 0.6, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f ca="1">IF(RAND() &lt; 0.6, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27">
+        <f ca="1">IF(RAND() &lt; 0.6, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f ca="1">IF(RAND() &lt; 0.6, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28">
+        <f ca="1">IF(RAND() &lt; 0.6, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f ca="1">IF(RAND() &lt; 0.6, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29">
+        <f ca="1">IF(RAND() &lt; 0.6, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30">
+        <f ca="1">IF(RAND() &lt; 0.6, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31">
+        <f ca="1">IF(RAND() &lt; 0.6, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32">
+        <f ca="1">IF(RAND() &lt; 0.6, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="str">
+        <f>_xlfn.TEXTJOIN(", ", TRUE, D24:D43)</f>
+        <v>1, 1, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33">
+        <f ca="1">IF(RAND() &lt; 0.6, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="str">
+        <f>_xlfn.TEXTJOIN(", ", TRUE, H24:H28)</f>
+        <v>1, 0, 0, 1, 0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34">
+        <f ca="1">IF(RAND() &lt; 0.6, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35">
+        <f ca="1">IF(RAND() &lt; 0.6, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36">
+        <f ca="1">IF(RAND() &lt; 0.6, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37">
+        <f ca="1">IF(RAND() &lt; 0.6, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38">
+        <f ca="1">IF(RAND() &lt; 0.6, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39">
+        <f ca="1">IF(RAND() &lt; 0.6, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40">
+        <f ca="1">IF(RAND() &lt; 0.6, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41">
+        <f ca="1">IF(RAND() &lt; 0.6, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42">
+        <f ca="1">IF(RAND() &lt; 0.6, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43">
+        <f ca="1">IF(RAND() &lt; 0.6, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
